--- a/data/outputs/management_altmetric/94.xlsx
+++ b/data/outputs/management_altmetric/94.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE83"/>
+  <dimension ref="A1:CF83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1031,6 +1036,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1276,6 +1284,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1535,6 +1546,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1786,6 +1800,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2043,6 +2060,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2302,6 +2322,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2557,6 +2580,9 @@
       <c r="CE8" t="n">
         <v>1</v>
       </c>
+      <c r="CF8" t="n">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2812,6 +2838,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3061,6 +3090,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3312,6 +3344,9 @@
         <v>0</v>
       </c>
       <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3555,6 +3590,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3810,6 +3848,9 @@
         <v>0</v>
       </c>
       <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4051,6 +4092,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4302,6 +4346,9 @@
         <v>0</v>
       </c>
       <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4547,6 +4594,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4796,6 +4846,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5051,6 +5104,9 @@
         <v>0</v>
       </c>
       <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5294,6 +5350,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5551,6 +5610,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5802,6 +5864,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6057,6 +6122,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>8.15</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6302,6 +6370,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6551,6 +6622,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6805,6 +6879,9 @@
       </c>
       <c r="CE25" t="n">
         <v>0</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>2.85</v>
       </c>
     </row>
     <row r="26">
@@ -7047,6 +7124,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7288,6 +7368,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7529,6 +7612,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7778,6 +7864,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8025,6 +8114,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8275,6 +8367,9 @@
       </c>
       <c r="CE31" t="n">
         <v>0</v>
+      </c>
+      <c r="CF31" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="32">
@@ -8515,6 +8610,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8766,6 +8864,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9017,6 +9118,9 @@
         <v>0</v>
       </c>
       <c r="CE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9258,6 +9362,9 @@
         <v>0</v>
       </c>
       <c r="CE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9491,6 +9598,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>5.04</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9740,6 +9850,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9987,6 +10100,9 @@
         <v>0</v>
       </c>
       <c r="CE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10230,6 +10346,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10471,6 +10590,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10720,6 +10842,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10967,6 +11092,9 @@
         <v>0</v>
       </c>
       <c r="CE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11210,6 +11338,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11453,6 +11584,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11704,6 +11838,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11950,6 +12087,9 @@
       </c>
       <c r="CE46" t="n">
         <v>0</v>
+      </c>
+      <c r="CF46" t="n">
+        <v>31.25</v>
       </c>
     </row>
     <row r="47">
@@ -12192,6 +12332,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12437,6 +12580,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12684,6 +12830,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12931,6 +13080,9 @@
         <v>0</v>
       </c>
       <c r="CE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13176,6 +13328,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13417,6 +13572,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13668,6 +13826,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13913,6 +14074,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14160,6 +14324,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14410,6 +14577,9 @@
       </c>
       <c r="CE56" t="n">
         <v>0</v>
+      </c>
+      <c r="CF56" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="57">
@@ -14650,6 +14820,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14891,6 +15064,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15138,6 +15314,9 @@
         <v>0</v>
       </c>
       <c r="CE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15365,6 +15544,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15604,6 +15786,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15846,6 +16031,9 @@
       </c>
       <c r="CE62" t="n">
         <v>0</v>
+      </c>
+      <c r="CF62" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -16084,6 +16272,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16338,6 +16529,9 @@
       </c>
       <c r="CE64" t="n">
         <v>0</v>
+      </c>
+      <c r="CF64" t="n">
+        <v>3.05</v>
       </c>
     </row>
     <row r="65">
@@ -16582,6 +16776,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16831,6 +17028,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17081,6 +17281,9 @@
       </c>
       <c r="CE67" t="n">
         <v>0</v>
+      </c>
+      <c r="CF67" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="68">
@@ -17323,6 +17526,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17570,6 +17776,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17821,6 +18030,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>2.85</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18068,6 +18280,9 @@
         <v>0</v>
       </c>
       <c r="CE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18313,6 +18528,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18563,6 +18781,9 @@
       </c>
       <c r="CE73" t="n">
         <v>0</v>
+      </c>
+      <c r="CF73" t="n">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="74">
@@ -18805,6 +19026,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19046,6 +19270,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19297,6 +19524,9 @@
       <c r="CE76" t="n">
         <v>1</v>
       </c>
+      <c r="CF76" t="n">
+        <v>8.93</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19542,6 +19772,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19793,6 +20026,9 @@
         <v>0</v>
       </c>
       <c r="CE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20038,6 +20274,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20285,6 +20524,9 @@
         <v>0</v>
       </c>
       <c r="CE80" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20530,6 +20772,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20771,6 +21016,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21022,6 +21270,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
